--- a/result.xlsx
+++ b/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25960" windowHeight="13540"/>
+    <workbookView windowWidth="29500" windowHeight="13540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,439 +35,439 @@
     <t>Sold Out Count</t>
   </si>
   <si>
+    <t>Handmade Ceramic Vase (Dune 45) Medium Size 10” tall - Home Decor Flower Vase</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>Discounted 3 pcs Sun Palms Dried Trimmed - Tropical Palm Fans Spear Pampas Grass Boho Bridal Bouquet Home Decor DIY Wedding Arch</t>
+  </si>
+  <si>
+    <t>Dried Pearl Millet Grass - Preserved Flowers DIY Bridal Bouque Natural Home Decor Boho Bedroom Wedding Flowers Tablescaping</t>
+  </si>
+  <si>
+    <t>Porcelain Tableware Collection Sand - Handmade Ceramic Kitchenware Serving Tray Beige Appetizer Serveware Jewelry Organizer Home Decor</t>
+  </si>
+  <si>
+    <t>Dried Wedding Flower Collection White - Bridal Bouquet Bridesmaid’s Bouquet Boutonnière Centerpiece - Pampas Grass Wedding Decor Eucalyptus</t>
+  </si>
+  <si>
+    <t>Dried Limonium Sinuatum White - Forget-me-not Natural Flowers Home Decor Wedding Centerpiece Pampas Grass Dried Florals</t>
+  </si>
+  <si>
+    <t>Miscanthus Dried - Silver Grass Pampas Grass Natural Home Decor Wedding Centerpiece Dried Flower Arrangement Rustic Boho DIY Wedding Decor</t>
+  </si>
+  <si>
+    <t>Ruscus Long-leaf Preserved - Dried Bouquet Pampas grass Pink Dried Flowers DIY Flower Arrangement Home Decor Wedding Bunch</t>
+  </si>
+  <si>
+    <t>Holiday Dried Collection - Pampas Grass Wedding Centerpiece Flower Bouquet Boho Fall Home Decor Bridal Bouquet Bridesmaids Bunch Bunny Tails</t>
+  </si>
+  <si>
+    <t>Dried Globe Amaranth - Dried Bouquet Wild Flower Pampas grass DIY Wedding Flowers Rustic Home Decor</t>
+  </si>
+  <si>
+    <t>Dried Sago Flower “Flamingo Feather” - Dried Bouquet Pampas grass DIY Wedding Flowers Rustic Home Decor</t>
+  </si>
+  <si>
+    <t>XL Pampas Grass 4FT tall The Fluffiest Dried Natural Large - Dried Pampas Grass Natural Home Decor DIY Wedding Flowers Boho Interior Design</t>
+  </si>
+  <si>
+    <t>Bunny Tails NEW Colors Handpicked Bunch - Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Bohemian Plant Wedding favors</t>
+  </si>
+  <si>
+    <t>Natural Wheat - Dried Bouquet Pampas grass Dried Flowers Boho Wedding Decor Rustic Home Decor</t>
+  </si>
+  <si>
+    <t>Dried Flowers Wedding Collection Pink - Bridal Bouquet Bridesmaid’s Bouquet Boutonnière - Pampas Grass Wedding Decor</t>
+  </si>
+  <si>
+    <t>Dried Flower Boutonnière White - Wedding Decor Pampas Grass Wedding favors Bunny Tails Preserved Eucalyptus</t>
+  </si>
+  <si>
+    <t>Large Bunch Preserved Eucalyptus Blue - Spiral Eucalyptus Leaves Home Decor Bohemian Interior Design Natural Wedding Table Centerpiece</t>
+  </si>
+  <si>
+    <t>Dried Wedding Flower Collection Ivory - Bridal Bouquet Bridesmaid’s Bouquet Boutonnière Centerpiece - Pampas Grass Wedding Decor</t>
+  </si>
+  <si>
+    <t>Amaranthus Preserved - Dried Florals Bouquet Pampas grass Dried Flowers Boho Wedding Rustic Home Decor DIY wedding arrangements</t>
+  </si>
+  <si>
+    <t>Preserved Baby’s Breath - Gypsophila DIY Dried Bouquet Modern Bohemian Wedding Flower Decor Bridal Shower Centerpieces Tablescaping</t>
+  </si>
+  <si>
+    <t>Mini Silver Dollar Eucalyptus Preserved - Dried Eucalyptus Leaves Home Decor Boho Interior Design Natural Wedding Table Centerpiece DIY</t>
+  </si>
+  <si>
+    <t>Sun Palm Leaves (3 pcs) Small Dried Organic - Tropical Palm Fans Spear Pampas Grass Boho Wedding Bridal Bouquet Home Decor</t>
+  </si>
+  <si>
+    <t>5 stems PAMPAS GRASS Pink 45" Large - Dried Flower Arrangement Home Decor Boho DIY Wedding Decor Centerpiece Bridal Bouquet</t>
+  </si>
+  <si>
+    <t>5 stems PAMPAS GRASS White 45" Large - Dried Flower Arrangement Home Decor Boho DIY Wedding Decor Centerpiece Bridal Bouquet</t>
+  </si>
+  <si>
+    <t>Billy Balls 10 pcs Preserved - Medium size Dried Bouquet Craspedia Billy Buttons Pampas grass Pink Dried Flowers wedding home decor</t>
+  </si>
+  <si>
+    <t>Golden Grass (30 stems) - Dried Pampas Grass Natural Home Decor Wedding Centerpiece Dried Flower Arrangement Rustic Boho</t>
+  </si>
+  <si>
+    <t>Preserved Scabiosa Flowers - Dried Flowers DIY Centerpiece Home Decor Bohemian Interior Design Natural Purple Wedding Bouquet Tablescaping</t>
+  </si>
+  <si>
+    <t>Preserved Millet Grass - Dried Flowers DIY Centerpiece Home Decor Bohemian Interior Design Natural Mauve Wedding Bouquet Tablescaping</t>
+  </si>
+  <si>
+    <t>Asparagus Preserved Dark Blue - Dried Florals Bouquet Pampas grass Dried Flowers Boho Wedding Rustic Home Decor DIY</t>
+  </si>
+  <si>
+    <t>DIY Centerpieces Mixed Dried Flower Confetti Box with Floral Foam - Pampas Grass Bunny Tails Boho Interior Wedding Boutonnière Tablescaping</t>
+  </si>
+  <si>
+    <t>Rabbit Tails 40 pcs Red - Bunny Tails Natural Dried Boho Wedding Decor Pampas Grass Bridal Bouquet Wedding Favors</t>
+  </si>
+  <si>
+    <t>Rabbit Tails 40 pcs Blue - Bunny Tails Natural Dried Boho Wedding Decor Pampas Grass Bridal Bouquet Wedding Favors</t>
+  </si>
+  <si>
+    <t>Rabbit Tails 40 pcs Brown - Bunny Tails Natural Dried Boho Wedding Decor Pampas Grass Bridal Bouquet Wedding Favors</t>
+  </si>
+  <si>
+    <t>Brown Limonium Bunch Preserved - Dried Florals Bouquet Pampas grass Dried Flowers Boho Wedding Rustic Home Decor</t>
+  </si>
+  <si>
+    <t>Purple Limonium Bunch Preserved - Dried Florals Bouquet Pampas grass Dried Flowers Boho Wedding Rustic Home Decor</t>
+  </si>
+  <si>
+    <t>Colorfull PAMPAS GRASS Small (15 pcs)- Reed Bunch Wedding flowers Home Decor Dried Flowers Boho Plant Rustic Gift Bridal Bouquet Centerpiece</t>
+  </si>
+  <si>
+    <t>Mixed Dried Flower Confetti Box for DIY Centerpieces Floral Foam - Pampas Grass Bunny Tails Boho Interior Wedding Boutonnière Tablescaping</t>
+  </si>
+  <si>
+    <t>Dried Flower Arrangements -Pampas Grass Wedding Centerpiece Flower Bouquet Boho Fall Home Decor Bridal Bouquet Bridesmaids Bunch Bunny Tails</t>
+  </si>
+  <si>
+    <t>Bunny Tails Confetti Box White DIY - Dried Flower Pampas Grass Centerpice Home Decor Boho Interior Design Wedding Boutonnière Tablescaping</t>
+  </si>
+  <si>
+    <t>Dried Pampas Dream Bouquet - Dry Flower Bouquet DIY Wedding Centerpiece Natural Bunch Home Decor Boho Decor Bridal Bouquet Bridesmaids</t>
+  </si>
+  <si>
+    <t>Eucalyptus Pampas Set - Wedding Centerpiece Dry Flower Bouquet Home Decor Boho Decor Bridal Bouquet Bridesmaids Bunch Bunny Tails</t>
+  </si>
+  <si>
+    <t>Luxury Dried Bouquets Large Pampas Grass Eucalyptus - Dry Flower Bouquet Bunny Tails Red Ruscus Centerpiece Home Decor Boho Wedding Decor</t>
+  </si>
+  <si>
+    <t>Pampas Grass Small Beige 23" - Dried Flower Bouquet Wedding Bunch Home Decor Boho Party Rustic Gift Bridal Bouquet Wedding favors</t>
+  </si>
+  <si>
+    <t>Small Pampas Grass Pink 23" tall - Dried Flower Bouquet Wedding Bunch Home Decor Boho Party Rustic Gift Bridal Bouquet Wedding favors</t>
+  </si>
+  <si>
+    <t>Mixed Dried Flower Confetti Box for DIY Centerpieces - Pampas Grass Home Decor Bunny Tails Boho Interior Wedding Boutonnière Tablescaping</t>
+  </si>
+  <si>
+    <t>Preserved Eucalyptus Mix Large Bunch - Silver Dollar Eucalyptus Weeping Willow Centerpiece Home Decor Boho Wedding Decor</t>
+  </si>
+  <si>
+    <t>Preserved Rice Flower - Dried Flowers DIY Centerpice Home Decor Bohemian Interior Design Natural Pink Wedding Bouquet Tablescaping</t>
+  </si>
+  <si>
+    <t>Preserved Rice Flower - Dried Flowers DIY Centerpice Home Decor Bohemian Interior Design Natural White Wedding Bouquet Tablescaping</t>
+  </si>
+  <si>
+    <t>Preserved Rice Flower - Dried Flowers DIY Centerpice Home Decor Bohemian Interior Design Natural Purple Wedding Bouquet Tablescaping</t>
+  </si>
+  <si>
+    <t>Preserved Rice Flower - Dried Flowers DIY Centerpice Home Decor Bohemian Interior Design Natural Yellow Wedding Bouquet Tablescaping</t>
+  </si>
+  <si>
+    <t>Preserved Eucalyptus - Silver Dollar Weeping Willow Spiral Home Decor Shower Aesthetic Boho Bedroom DIY Natural Wedding Table Centerpiece</t>
+  </si>
+  <si>
+    <t>Preserved Eucalyptus Yellow Silver Dollar- Dried Eucalyptus Leaves Home Decor Boho Interior Design Natural Wedding Table Centerpiece</t>
+  </si>
+  <si>
+    <t>Luxury Preserved Bouquet “Green Goddess”- Eucalyptus Gypsophila Weeping Willow Limonium Rabbit Tails Centerpiece Home Decor Boho Wedding</t>
+  </si>
+  <si>
+    <t>Luxury Dried Flower Bouquets  - Pampas Grass Preserved Gypsophila Eucalyptus Nigella White Ruscus Centerpiece Home Decor Boho Wedding Gift</t>
+  </si>
+  <si>
+    <t>Pampas &amp; Oats Set Dried -  Wedding Centerpiece Natural Home Decor Boho Decor Bridal Bouquet Bridesmaids bunch</t>
+  </si>
+  <si>
+    <t>BUNNY TAILS Burgundy Handpicked Bunch - Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Wedding Favors Centerpiece</t>
+  </si>
+  <si>
+    <t>Brown Pampas Bouquet - Dried Flower Bouquet Pampas Grass Bunny Tails Red Ruscus Centerpiece Home Decor Boho Wedding Decor</t>
+  </si>
+  <si>
+    <t>Dried Bouquet "Berry Punch" - Dry Flower Bouquet Bunny Tails Eucalyptus Red Ruscus Centerpiece Home Decor Boho Wedding Decor Mother’s Day</t>
+  </si>
+  <si>
+    <t>Wild Blueberry Bouquet - Dry Flower Bouquet Bunny Tails Eucalyptus Red Ruscus Centerpiece Home Decor Boho Wedding Decor</t>
+  </si>
+  <si>
+    <t>Bundle: Red Eucalyptus Set - Limonium Ruscus Eucalyptus Bunny Tails Wedding Centerpiece Bouquet Home Decor Boho Decor Bridal Bouquet</t>
+  </si>
+  <si>
+    <t>Rosé - Dried Floral Set -Limonium Rice Flower Ruscus Eucalyptus Wedding Centerpiece Bouquet Home Decor Boho Decor Bridal Bouquet Bridesmaids</t>
+  </si>
+  <si>
+    <t>Bundle: Pampas Natural 30 pcs &amp; Bunny Burgundy Set - Bunny Tails Wedding Centerpiece Home Decor Dried Flowers Boho Rustic Bridal Bouquet DIY</t>
+  </si>
+  <si>
+    <t>Natural Pampas Grass Arrangement (5 stems) - Extra Fluffy Dried 45" Large - Home Office Decor Boho Wedding Decor Dried Flowers Boho</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>Preserved Eucalyptus Small Leaf in Green - Home Decor Bohemian Interior Design Natural Wedding Table Centerpieces Easter</t>
+  </si>
+  <si>
+    <t>Silver Dollar Eucalyptus Red Preserved - Dried Eucalyptus Leaves Home Decor Boho Interior Design Natural Wedding Table Centerpiece</t>
+  </si>
+  <si>
+    <t>Silver Dollar Eucalyptus Blue Preserved -Dried Eucalyptus Leaves Home Decor Boho Interior Design Natural Wedding Table Centerpiece</t>
+  </si>
+  <si>
+    <t>Preserved Spiral Eucalyptus - Dried Eucalyptus in Shower Aesthetic Home Decor Boho Interior Bedroom Design Natural Wedding Table Centerpiece</t>
+  </si>
+  <si>
+    <t>Asparagus Preserved Natural - DIY Dried Bouquet Modern Bohemian Wedding Flower Decor Bridal Shower Centerpieces Tablescaping</t>
+  </si>
+  <si>
+    <t>Pink Bunny Set of 4 - Small White Pampas Grass Pink and White Bunny Tails Ivory Nigella Dried Flowers Wedding Decor Home Decor</t>
+  </si>
+  <si>
+    <t>Cotton Candy Bouquet - Dry Flower Bouquet Pink Pampas Grass Bunny Tails Ruscus Centerpiece Home Decor Wedding Decor Easter Gift</t>
+  </si>
+  <si>
+    <t>Dried Flower Bouquet Pink “Cloud” - Preserved Pink Baby’s Breath Ruscus Pampas Grass Centerpiece Home Decor Wedding Decor Easter Gift</t>
+  </si>
+  <si>
+    <t>Large Dried Bouquet “I Love You More” - Dry Flower Bouquet Pink Pampas Grass Bunny Tails Centerpiece Home Decor Wedding Decor Boho Gift</t>
+  </si>
+  <si>
+    <t>White Bunny Tails Bridal Bouquet (240 pcs) -  Natural Dried Lagurus Pampas Grass Boho Wedding Decor Centerpiece Wedding favors</t>
+  </si>
+  <si>
+    <t>Preserved Eucalyptus Spiral - Dried Eucalyptus Bunch Home Decor Boho Bedroom Shower Aesthetic Natural Wedding Table Centerpiece</t>
+  </si>
+  <si>
+    <t>25 pcs BUNNY TAILS - Natural Dried Lagurus Ovatus Bouquet Modern Bohemian Wedding Decor Bridal Shower Centerpieces Christmas Tablescaping</t>
+  </si>
+  <si>
+    <t>Dried Flower Bouquet “Cashmere” - Pampas Grass White Ruscus Limonium Centerpiece Home Decor Boho Wedding Decor Tablescaping Easter</t>
+  </si>
+  <si>
+    <t>Dried Flower Bouquet “Nocturnal” - Preserved Limonium Black Bunny Tails Rice Flower Centerpiece Home Decor Boho Wedding Decor</t>
+  </si>
+  <si>
+    <t>Starburst Dried Bouquet - Dry Flower Bouquet Bunny Tails Eucalyptus Red Ruscus Centerpiece Home Decor Boho Wedding Decor</t>
+  </si>
+  <si>
+    <t>Berry Bouquet Dried - Preserved Eucalyptus Red Ruscus Rice Flower Centerpiece Home Decor Boho Wedding Decor Tablescaping Easter gift</t>
+  </si>
+  <si>
+    <t>Dried Flower Bouquet “Festive” - Pampas Grass Preserved Eucalyptus Limonium DIY Wedding Centerpiece Home Decor Boho Bridal Bunch Gift</t>
+  </si>
+  <si>
+    <t>Large Dried Flower Bouquet “Pink Champagne” - Pampas Grass Preserved Eucalyptus Oats Bunny Tails Centerpiece Home Decor Boho Wedding Decor</t>
+  </si>
+  <si>
+    <t>Luxury Pampas Bouquets Dried - Preserved Eucalyptus Limonium Bunny Tails Centerpiece Home Decor Boho Wedding Gift DIY Wedding Centerpiece</t>
+  </si>
+  <si>
+    <t>15 pcs PAMPAS GRASS Small 23" tall - Reed Bunch Wedding flowers Home Decor Dried Flowers Boho Plant Rustic Gift Bridal Bouquet</t>
+  </si>
+  <si>
+    <t>Pampas Grass Bunch Brown 10 pcs Natural Dried - Preserved Flowers Bouquet Boho Decor Wedding Table Centerpieces Bridal Shower Decorations</t>
+  </si>
+  <si>
+    <t>PAMPAS GRASS Small 23" tall -Reed Bunch Wedding flowers Home Decor Dried Florals Boho Rustic Gift Bridal Bouquet Wedding favors</t>
+  </si>
+  <si>
+    <t>Ivory Pampas Set - Small White Pampas Bunny Tails White Ruscus Ivory Fluffy Pampas Dried Flowers Wedding Decor Home Decor Easter Gift</t>
+  </si>
+  <si>
+    <t>Set: Brown Pampas Burgundy Bunny Limonium - Dry Flower Bouquet Bunny Tails Fluffy Pampas Wedding Centerpiece Dried Home Decor Boho Bridal</t>
+  </si>
+  <si>
+    <t>XL PAMPAS GRASS 3 stems Extra Fluffy Natural Color 45" Large - Home Office Decor Boho Wedding Decor Dried Flowers Boho</t>
+  </si>
+  <si>
+    <t>Dried Bunny Bouquet “Honey” - Bunny Tails Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Centerpiece Wedding favors</t>
+  </si>
+  <si>
+    <t>Tropical Palm Leaves (3 pcs) Large Dried Organic - Cycas Palms Boho Wedding Home Decor Pampas Grass</t>
+  </si>
+  <si>
+    <t>Faux Pampas Grass "Vanilla" (3 stems) Medium 38” tall Artificial - For Love Of Pampas</t>
+  </si>
+  <si>
+    <t>Faux Pampas Grass "Vanilla" (3 stems) Large 43" tall Artificial - For Love Of Pampas</t>
+  </si>
+  <si>
+    <t>BUNNY TAILS 60 pcs Handpicked Bunch - Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Easter decor Wedding favors</t>
+  </si>
+  <si>
+    <t>BUNNY TAILS Black Handpicked Bunch - Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Wedding favors</t>
+  </si>
+  <si>
+    <t>BUNNY TAILS Handpicked Bunch - Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Fall Wedding favors Invitations</t>
+  </si>
+  <si>
+    <t>Taper Candles Set of 4 Milk White Unscented - Natural Wax Candles Home Decor Tablescaping Wedding Table Centerpiece</t>
+  </si>
+  <si>
+    <t>Palm Cloud Bouquet Dried - Dried Palm Leaf Baby’s Breath Wedding Centerpiece Natural Home Decor Boho Decor Decor Bridal Bouquet Bridesmaids</t>
+  </si>
+  <si>
+    <t>Preserved Limonium Bunch Natural - Preserved Florals Bouquet Pampas grass Dried Flowers Boho Wedding Rustic Home Decor</t>
+  </si>
+  <si>
+    <t>Limonium Bunch Preserved Natural - Dried Florals Bouquet Pampas grass Dried Flowers Boho Wedding Decor Rustic Home Decor</t>
+  </si>
+  <si>
+    <t>BUNNY TAILS (180 pcs) Handpicked - Large Bunch Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Centerpiece</t>
+  </si>
+  <si>
+    <t>BUNNY TAILS (180 pcs) Pink - Large Bunch Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Centerpiece Wedding favors</t>
+  </si>
+  <si>
+    <t>Dried Bar Pampas Bunny Tails Palm Leaves - Dried Florals Wedding Decor Centerpiece Natural Home Decor Boho DIY  Bridal Bouquet</t>
+  </si>
+  <si>
+    <t>Natural Limonium Bunch - Preserved Florals Bouquet Pampas grass Dried Flowers Boho Wedding Decor Rustic Home Decor</t>
+  </si>
+  <si>
+    <t>Red Limonium Bunch Preserved Natural -Dried Florals Pampas grass Dried Flower Bouquet Boho Wedding Decor Rustic Home Decor Tablescape</t>
+  </si>
+  <si>
+    <t>Bunny Tails "Natural" Handpicked Bunch - Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Bohemian Plant Wedding favors</t>
+  </si>
+  <si>
+    <t>Boho Bouquet Dried - Bunny Tails Wedding Centerpiece Natural Home Decor Boho Decor Decor Bridal Bouquet Bridesmaids Dried palm leaf</t>
+  </si>
+  <si>
+    <t>Faux Pampas Grass "Chocolate" (3 stems) Medium 38” tall Artificial - For Love Of Pampas</t>
+  </si>
+  <si>
+    <t>Pampas Grass "Faux" Caramel (3 stems) Medium 38” tall Real Touch - Boho Home Decor Wedding Decor Floral Arrangements Centerpiece</t>
+  </si>
+  <si>
+    <t>Pampas Grass "Faux" Caramel (5 stems) Small 20” tall Real Touch - Boho Home Decor Wedding Decor Floral Arrangements Centerpiece</t>
+  </si>
+  <si>
+    <t>Faux Pampas Grass "Peach" (3 stems) Medium 38” tall Artificial - For Love Of Pampas</t>
+  </si>
+  <si>
+    <t>Set of 3 BUNNY TAILS Bunches Handpicked - Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Wedding favor</t>
+  </si>
+  <si>
+    <t>600 pcs Wholesale Bunny Tails - Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Wedding favors DIY Bouquet Centerpiece</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>Discounted 3 pcs Large Palm Leaves Dried Trimmed - Tropical Palm Fans Spear Pampas Grass Boho Wedding Bridal Bouquet Home Decor</t>
+  </si>
+  <si>
+    <t>Bundle Ivory Pampas Bunny Set - Wedding Centerpiece Dry Flower Bouquet Home Decor Boho Decor Bridal Bouquet Bridesmaids Bunch Bunny Tails</t>
+  </si>
+  <si>
+    <t>Ivory Pampas Bouquet 25” Bunny Tails - Wedding Centerpiece Natural Grass Home Decor Boho Decor Decor Bridal Bouquet Bridesmaids</t>
+  </si>
+  <si>
+    <t>BUNNY TAILS (180 pcs) - Large Bunch Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Centerpiece Wedding favors</t>
+  </si>
+  <si>
+    <t>Faux Pampas Grass "Peach" (3 stems) Large 43” tall Artificial - For Love Of Pampas</t>
+  </si>
+  <si>
+    <t>Red Limonium Bunch- Dried Natural Florals Bouquet Pampas grass Dried Flowers Boho Wedding Decor Rustic Home Decor Tablescaping</t>
+  </si>
+  <si>
+    <t>Bunny Tails "White" Handpicked Bunch - Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Bohemian Plant Backyard Patio Design</t>
+  </si>
+  <si>
+    <t>Mini Bunny Tails Bunch 60 pcs - Dried Lagurus Pampas Grass Boho Wedding Invitations Bridal Bouquet Home Decor Dried florals Wedding favors</t>
+  </si>
+  <si>
+    <t>10 stems Artificial Peony Bunch Milk White  28” tall Clearance - Luxe Quality Faux Flowers Home Decor Wedding Decor Bouquet Pampas Grass</t>
+  </si>
+  <si>
+    <t>Billy Balls Yellow (10 pcs) Dried - Medium size Dried Bouquet Craspedia Billy Buttons Pampas grass Yellow Dried Flowers wedding home decor</t>
+  </si>
+  <si>
+    <t>Bundle: 3xSmall, 3xLarge Palm Leaves Dried Trimmed Organic - Tropical Palm Fans Leaves Pampas Grass Boho Wedding Bridal Bouquet Home Decor</t>
+  </si>
+  <si>
+    <t>Dried Palm Leaves 2 pcs Natural Organic - Tropical Palm Fans Spear Pampas Grass Boho Wedding Bridal Bouquet Home Decor Palm Flutters</t>
+  </si>
+  <si>
+    <t>Golden Wheat Dried Natural Bunch - Dried Bouquet Pampas grass Dried Flowers Boho Wedding Decor Rustic Home Decor</t>
+  </si>
+  <si>
+    <t>Red Ruscus Branches Dried - DIY Flower Arrangement Boho Wedding Decor Rustic Home Decor Bridal Bouquet</t>
+  </si>
+  <si>
+    <t>Medium Pampas Grass Ivory Bunch 30” (7 stems) Natural Dried - For Love Of Pampas</t>
+  </si>
+  <si>
+    <t>PAMPAS GRASS Small Natural Brown 23" tall - Reed Bunch Wedding flowers Home Decor Dried Flowers Boho Plant Rustic Gift Bridal Bouquet</t>
+  </si>
+  <si>
+    <t>Pampas Grass Small 23" tall - Dried Flower Bouquet Wedding Bunch Home Decor Boho Party Rustic Gift Bridal Bouquet Wedding favors</t>
+  </si>
+  <si>
+    <t>BUNNY TAILS Handpicked Bunch - White Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Boho Wedding favors</t>
+  </si>
+  <si>
+    <t>Rabbit Tails 40 pcs Natural Green - Bunny Tails Natural Dried Boho Wedding Decor Pampas Grass Bridal Bouquet Wedding Favors</t>
+  </si>
+  <si>
+    <t>Bunny Tails Red Bean Handpicked Bunch - Natural Dried Boho Wedding Decor Pampas Grass Bridal Bouquet House Plant Wedding Favors</t>
+  </si>
+  <si>
+    <t>Nigella Orientalis Off-white Dried - DIY Flower Arrangement Boho Wedding Decor Rustic Home Decor Bridal Bouquet</t>
+  </si>
+  <si>
+    <t>Dried Oats Natural Bunch - Dried Bouquet Pampas grass Dried Flowers Boho Wedding Decor Rustic Home Decor</t>
+  </si>
+  <si>
+    <t>Ivory Ruscus Branches Dried - DIY Flower Arrangement Pampas grass Dried Flowers Boho Wedding Decor Rustic Home Decor Bridal Bouquet</t>
+  </si>
+  <si>
+    <t>Rabbit Tails 40 pcs - Natural Dried Boho Wedding Decor Pampas Grass White Bridal Bouquet Bohemian Plant Backyard Patio Design</t>
+  </si>
+  <si>
+    <t>Palm Leaves (3 pcs) Small Dried Trimmed Organic - Tropical Palm Fans Spear Pampas Grass Boho Wedding Bridal Bouquet Home Decor</t>
+  </si>
+  <si>
+    <t>XL PAMPAS GRASS (4 pcs) The fluffiest Dried Natural Large 45" tall - For Love Of Pampas</t>
+  </si>
+  <si>
+    <t>Palm Leaves (3 pcs) Large Dried Trimmed Organic - Tropical Palm Fans Spear Pampas Grass Boho Wedding Bridal Bouquet Home Decor</t>
+  </si>
+  <si>
+    <t>PAMPAS GRASS White Small 23" tall Wedding flower bunch home decor Reed Housewarming gift Dried Flowers bohemian plant rustic Easter</t>
+  </si>
+  <si>
     <t>BUNNY TAILS Handpicked Bunch - Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Bohemian Plant Wedding favors</t>
   </si>
   <si>
-    <t>20%</t>
-  </si>
-  <si>
     <t>Small Pampas Grass (15 stems) 23” tall - Reed Bunch Wedding Flowers Home Decor Dried Florals Boho Rustic Gift Bridal Bouquet Wedding Favors</t>
-  </si>
-  <si>
-    <t>Palm Leaves (3 pcs) Large Dried Trimmed Organic - Tropical Palm Fans Spear Pampas Grass Boho Wedding Bridal Bouquet Home Decor</t>
-  </si>
-  <si>
-    <t>XL PAMPAS GRASS (4 pcs) The fluffiest Dried Natural Large 45" tall - For Love Of Pampas</t>
-  </si>
-  <si>
-    <t>30%</t>
-  </si>
-  <si>
-    <t>Handmade Ceramic Vase (Dune 45) Medium Size 10” tall - Home Decor Flower Vase</t>
-  </si>
-  <si>
-    <t>Discounted 3 pcs Sun Palms Dried Trimmed - Tropical Palm Fans Spear Pampas Grass Boho Bridal Bouquet Home Decor DIY Wedding Arch</t>
-  </si>
-  <si>
-    <t>Dried Pearl Millet Grass - Preserved Flowers DIY Bridal Bouque Natural Home Decor Boho Bedroom Wedding Flowers Tablescaping</t>
-  </si>
-  <si>
-    <t>Porcelain Tableware Collection Sand - Handmade Ceramic Kitchenware Serving Tray Beige Appetizer Serveware Jewelry Organizer Home Decor</t>
-  </si>
-  <si>
-    <t>Dried Wedding Flower Collection White - Bridal Bouquet Bridesmaid’s Bouquet Boutonnière Centerpiece - Pampas Grass Wedding Decor Eucalyptus</t>
-  </si>
-  <si>
-    <t>Dried Limonium Sinuatum White - Forget-me-not Natural Flowers Home Decor Wedding Centerpiece Pampas Grass Dried Florals</t>
-  </si>
-  <si>
-    <t>Miscanthus Dried - Silver Grass Pampas Grass Natural Home Decor Wedding Centerpiece Dried Flower Arrangement Rustic Boho DIY Wedding Decor</t>
-  </si>
-  <si>
-    <t>Ruscus Long-leaf Preserved - Dried Bouquet Pampas grass Pink Dried Flowers DIY Flower Arrangement Home Decor Wedding Bunch</t>
-  </si>
-  <si>
-    <t>Holiday Dried Collection - Pampas Grass Wedding Centerpiece Flower Bouquet Boho Fall Home Decor Bridal Bouquet Bridesmaids Bunch Bunny Tails</t>
-  </si>
-  <si>
-    <t>Dried Globe Amaranth - Dried Bouquet Wild Flower Pampas grass DIY Wedding Flowers Rustic Home Decor</t>
-  </si>
-  <si>
-    <t>Dried Sago Flower “Flamingo Feather” - Dried Bouquet Pampas grass DIY Wedding Flowers Rustic Home Decor</t>
-  </si>
-  <si>
-    <t>XL Pampas Grass 4FT tall The Fluffiest Dried Natural Large - Dried Pampas Grass Natural Home Decor DIY Wedding Flowers Boho Interior Design</t>
-  </si>
-  <si>
-    <t>Bunny Tails NEW Colors Handpicked Bunch - Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Bohemian Plant Wedding favors</t>
-  </si>
-  <si>
-    <t>Natural Wheat - Dried Bouquet Pampas grass Dried Flowers Boho Wedding Decor Rustic Home Decor</t>
-  </si>
-  <si>
-    <t>Dried Flowers Wedding Collection Pink - Bridal Bouquet Bridesmaid’s Bouquet Boutonnière - Pampas Grass Wedding Decor</t>
-  </si>
-  <si>
-    <t>Dried Flower Boutonnière White - Wedding Decor Pampas Grass Wedding favors Bunny Tails Preserved Eucalyptus</t>
-  </si>
-  <si>
-    <t>Large Bunch Preserved Eucalyptus Blue - Spiral Eucalyptus Leaves Home Decor Bohemian Interior Design Natural Wedding Table Centerpiece</t>
-  </si>
-  <si>
-    <t>Dried Wedding Flower Collection Ivory - Bridal Bouquet Bridesmaid’s Bouquet Boutonnière Centerpiece - Pampas Grass Wedding Decor</t>
-  </si>
-  <si>
-    <t>Amaranthus Preserved - Dried Florals Bouquet Pampas grass Dried Flowers Boho Wedding Rustic Home Decor DIY wedding arrangements</t>
-  </si>
-  <si>
-    <t>Preserved Baby’s Breath - Gypsophila DIY Dried Bouquet Modern Bohemian Wedding Flower Decor Bridal Shower Centerpieces Tablescaping</t>
-  </si>
-  <si>
-    <t>Mini Silver Dollar Eucalyptus Preserved - Dried Eucalyptus Leaves Home Decor Boho Interior Design Natural Wedding Table Centerpiece DIY</t>
-  </si>
-  <si>
-    <t>Sun Palm Leaves (3 pcs) Small Dried Organic - Tropical Palm Fans Spear Pampas Grass Boho Wedding Bridal Bouquet Home Decor</t>
-  </si>
-  <si>
-    <t>5 stems PAMPAS GRASS Pink 45" Large - Dried Flower Arrangement Home Decor Boho DIY Wedding Decor Centerpiece Bridal Bouquet</t>
-  </si>
-  <si>
-    <t>5 stems PAMPAS GRASS White 45" Large - Dried Flower Arrangement Home Decor Boho DIY Wedding Decor Centerpiece Bridal Bouquet</t>
-  </si>
-  <si>
-    <t>Billy Balls 10 pcs Preserved - Medium size Dried Bouquet Craspedia Billy Buttons Pampas grass Pink Dried Flowers wedding home decor</t>
-  </si>
-  <si>
-    <t>Golden Grass (30 stems) - Dried Pampas Grass Natural Home Decor Wedding Centerpiece Dried Flower Arrangement Rustic Boho</t>
-  </si>
-  <si>
-    <t>Preserved Scabiosa Flowers - Dried Flowers DIY Centerpiece Home Decor Bohemian Interior Design Natural Purple Wedding Bouquet Tablescaping</t>
-  </si>
-  <si>
-    <t>Preserved Millet Grass - Dried Flowers DIY Centerpiece Home Decor Bohemian Interior Design Natural Mauve Wedding Bouquet Tablescaping</t>
-  </si>
-  <si>
-    <t>Asparagus Preserved Dark Blue - Dried Florals Bouquet Pampas grass Dried Flowers Boho Wedding Rustic Home Decor DIY</t>
-  </si>
-  <si>
-    <t>DIY Centerpieces Mixed Dried Flower Confetti Box with Floral Foam - Pampas Grass Bunny Tails Boho Interior Wedding Boutonnière Tablescaping</t>
-  </si>
-  <si>
-    <t>Rabbit Tails 40 pcs Red - Bunny Tails Natural Dried Boho Wedding Decor Pampas Grass Bridal Bouquet Wedding Favors</t>
-  </si>
-  <si>
-    <t>Rabbit Tails 40 pcs Blue - Bunny Tails Natural Dried Boho Wedding Decor Pampas Grass Bridal Bouquet Wedding Favors</t>
-  </si>
-  <si>
-    <t>Rabbit Tails 40 pcs Brown - Bunny Tails Natural Dried Boho Wedding Decor Pampas Grass Bridal Bouquet Wedding Favors</t>
-  </si>
-  <si>
-    <t>Brown Limonium Bunch Preserved - Dried Florals Bouquet Pampas grass Dried Flowers Boho Wedding Rustic Home Decor</t>
-  </si>
-  <si>
-    <t>Purple Limonium Bunch Preserved - Dried Florals Bouquet Pampas grass Dried Flowers Boho Wedding Rustic Home Decor</t>
-  </si>
-  <si>
-    <t>Colorfull PAMPAS GRASS Small (15 pcs)- Reed Bunch Wedding flowers Home Decor Dried Flowers Boho Plant Rustic Gift Bridal Bouquet Centerpiece</t>
-  </si>
-  <si>
-    <t>Mixed Dried Flower Confetti Box for DIY Centerpieces Floral Foam - Pampas Grass Bunny Tails Boho Interior Wedding Boutonnière Tablescaping</t>
-  </si>
-  <si>
-    <t>Dried Flower Arrangements -Pampas Grass Wedding Centerpiece Flower Bouquet Boho Fall Home Decor Bridal Bouquet Bridesmaids Bunch Bunny Tails</t>
-  </si>
-  <si>
-    <t>Bunny Tails Confetti Box White DIY - Dried Flower Pampas Grass Centerpice Home Decor Boho Interior Design Wedding Boutonnière Tablescaping</t>
-  </si>
-  <si>
-    <t>Dried Pampas Dream Bouquet - Dry Flower Bouquet DIY Wedding Centerpiece Natural Bunch Home Decor Boho Decor Bridal Bouquet Bridesmaids</t>
-  </si>
-  <si>
-    <t>Eucalyptus Pampas Set - Wedding Centerpiece Dry Flower Bouquet Home Decor Boho Decor Bridal Bouquet Bridesmaids Bunch Bunny Tails</t>
-  </si>
-  <si>
-    <t>Luxury Dried Bouquets Large Pampas Grass Eucalyptus - Dry Flower Bouquet Bunny Tails Red Ruscus Centerpiece Home Decor Boho Wedding Decor</t>
-  </si>
-  <si>
-    <t>Pampas Grass Small Beige 23" - Dried Flower Bouquet Wedding Bunch Home Decor Boho Party Rustic Gift Bridal Bouquet Wedding favors</t>
-  </si>
-  <si>
-    <t>Small Pampas Grass Pink 23" tall - Dried Flower Bouquet Wedding Bunch Home Decor Boho Party Rustic Gift Bridal Bouquet Wedding favors</t>
-  </si>
-  <si>
-    <t>Mixed Dried Flower Confetti Box for DIY Centerpieces - Pampas Grass Home Decor Bunny Tails Boho Interior Wedding Boutonnière Tablescaping</t>
-  </si>
-  <si>
-    <t>Preserved Eucalyptus Mix Large Bunch - Silver Dollar Eucalyptus Weeping Willow Centerpiece Home Decor Boho Wedding Decor</t>
-  </si>
-  <si>
-    <t>Preserved Rice Flower - Dried Flowers DIY Centerpice Home Decor Bohemian Interior Design Natural Pink Wedding Bouquet Tablescaping</t>
-  </si>
-  <si>
-    <t>Preserved Rice Flower - Dried Flowers DIY Centerpice Home Decor Bohemian Interior Design Natural White Wedding Bouquet Tablescaping</t>
-  </si>
-  <si>
-    <t>Preserved Rice Flower - Dried Flowers DIY Centerpice Home Decor Bohemian Interior Design Natural Purple Wedding Bouquet Tablescaping</t>
-  </si>
-  <si>
-    <t>Preserved Rice Flower - Dried Flowers DIY Centerpice Home Decor Bohemian Interior Design Natural Yellow Wedding Bouquet Tablescaping</t>
-  </si>
-  <si>
-    <t>Preserved Eucalyptus - Silver Dollar Weeping Willow Spiral Home Decor Shower Aesthetic Boho Bedroom DIY Natural Wedding Table Centerpiece</t>
-  </si>
-  <si>
-    <t>Preserved Eucalyptus Yellow Silver Dollar- Dried Eucalyptus Leaves Home Decor Boho Interior Design Natural Wedding Table Centerpiece</t>
-  </si>
-  <si>
-    <t>Luxury Preserved Bouquet “Green Goddess”- Eucalyptus Gypsophila Weeping Willow Limonium Rabbit Tails Centerpiece Home Decor Boho Wedding</t>
-  </si>
-  <si>
-    <t>Luxury Dried Flower Bouquets  - Pampas Grass Preserved Gypsophila Eucalyptus Nigella White Ruscus Centerpiece Home Decor Boho Wedding Gift</t>
-  </si>
-  <si>
-    <t>Pampas &amp; Oats Set Dried -  Wedding Centerpiece Natural Home Decor Boho Decor Bridal Bouquet Bridesmaids bunch</t>
-  </si>
-  <si>
-    <t>BUNNY TAILS Burgundy Handpicked Bunch - Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Wedding Favors Centerpiece</t>
-  </si>
-  <si>
-    <t>Brown Pampas Bouquet - Dried Flower Bouquet Pampas Grass Bunny Tails Red Ruscus Centerpiece Home Decor Boho Wedding Decor</t>
-  </si>
-  <si>
-    <t>Dried Bouquet "Berry Punch" - Dry Flower Bouquet Bunny Tails Eucalyptus Red Ruscus Centerpiece Home Decor Boho Wedding Decor Mother’s Day</t>
-  </si>
-  <si>
-    <t>Wild Blueberry Bouquet - Dry Flower Bouquet Bunny Tails Eucalyptus Red Ruscus Centerpiece Home Decor Boho Wedding Decor</t>
-  </si>
-  <si>
-    <t>Bundle: Red Eucalyptus Set - Limonium Ruscus Eucalyptus Bunny Tails Wedding Centerpiece Bouquet Home Decor Boho Decor Bridal Bouquet</t>
-  </si>
-  <si>
-    <t>Rosé - Dried Floral Set -Limonium Rice Flower Ruscus Eucalyptus Wedding Centerpiece Bouquet Home Decor Boho Decor Bridal Bouquet Bridesmaids</t>
-  </si>
-  <si>
-    <t>Bundle: Pampas Natural 30 pcs &amp; Bunny Burgundy Set - Bunny Tails Wedding Centerpiece Home Decor Dried Flowers Boho Rustic Bridal Bouquet DIY</t>
-  </si>
-  <si>
-    <t>Natural Pampas Grass Arrangement (5 stems) - Extra Fluffy Dried 45" Large - Home Office Decor Boho Wedding Decor Dried Flowers Boho</t>
-  </si>
-  <si>
-    <t>Preserved Eucalyptus Small Leaf in Green - Home Decor Bohemian Interior Design Natural Wedding Table Centerpieces Easter</t>
-  </si>
-  <si>
-    <t>Silver Dollar Eucalyptus Red Preserved - Dried Eucalyptus Leaves Home Decor Boho Interior Design Natural Wedding Table Centerpiece</t>
-  </si>
-  <si>
-    <t>Silver Dollar Eucalyptus Blue Preserved -Dried Eucalyptus Leaves Home Decor Boho Interior Design Natural Wedding Table Centerpiece</t>
-  </si>
-  <si>
-    <t>Preserved Spiral Eucalyptus - Dried Eucalyptus in Shower Aesthetic Home Decor Boho Interior Bedroom Design Natural Wedding Table Centerpiece</t>
-  </si>
-  <si>
-    <t>Asparagus Preserved Natural - DIY Dried Bouquet Modern Bohemian Wedding Flower Decor Bridal Shower Centerpieces Tablescaping</t>
-  </si>
-  <si>
-    <t>Pink Bunny Set of 4 - Small White Pampas Grass Pink and White Bunny Tails Ivory Nigella Dried Flowers Wedding Decor Home Decor</t>
-  </si>
-  <si>
-    <t>Cotton Candy Bouquet - Dry Flower Bouquet Pink Pampas Grass Bunny Tails Ruscus Centerpiece Home Decor Wedding Decor Easter Gift</t>
-  </si>
-  <si>
-    <t>Dried Flower Bouquet Pink “Cloud” - Preserved Pink Baby’s Breath Ruscus Pampas Grass Centerpiece Home Decor Wedding Decor Easter Gift</t>
-  </si>
-  <si>
-    <t>Large Dried Bouquet “I Love You More” - Dry Flower Bouquet Pink Pampas Grass Bunny Tails Centerpiece Home Decor Wedding Decor Boho Gift</t>
-  </si>
-  <si>
-    <t>White Bunny Tails Bridal Bouquet (240 pcs) -  Natural Dried Lagurus Pampas Grass Boho Wedding Decor Centerpiece Wedding favors</t>
-  </si>
-  <si>
-    <t>Preserved Eucalyptus Spiral - Dried Eucalyptus Bunch Home Decor Boho Bedroom Shower Aesthetic Natural Wedding Table Centerpiece</t>
-  </si>
-  <si>
-    <t>25 pcs BUNNY TAILS - Natural Dried Lagurus Ovatus Bouquet Modern Bohemian Wedding Decor Bridal Shower Centerpieces Christmas Tablescaping</t>
-  </si>
-  <si>
-    <t>Dried Flower Bouquet “Cashmere” - Pampas Grass White Ruscus Limonium Centerpiece Home Decor Boho Wedding Decor Tablescaping Easter</t>
-  </si>
-  <si>
-    <t>Dried Flower Bouquet “Nocturnal” - Preserved Limonium Black Bunny Tails Rice Flower Centerpiece Home Decor Boho Wedding Decor</t>
-  </si>
-  <si>
-    <t>Starburst Dried Bouquet - Dry Flower Bouquet Bunny Tails Eucalyptus Red Ruscus Centerpiece Home Decor Boho Wedding Decor</t>
-  </si>
-  <si>
-    <t>Berry Bouquet Dried - Preserved Eucalyptus Red Ruscus Rice Flower Centerpiece Home Decor Boho Wedding Decor Tablescaping Easter gift</t>
-  </si>
-  <si>
-    <t>Dried Flower Bouquet “Festive” - Pampas Grass Preserved Eucalyptus Limonium DIY Wedding Centerpiece Home Decor Boho Bridal Bunch Gift</t>
-  </si>
-  <si>
-    <t>Large Dried Flower Bouquet “Pink Champagne” - Pampas Grass Preserved Eucalyptus Oats Bunny Tails Centerpiece Home Decor Boho Wedding Decor</t>
-  </si>
-  <si>
-    <t>Luxury Pampas Bouquets Dried - Preserved Eucalyptus Limonium Bunny Tails Centerpiece Home Decor Boho Wedding Gift DIY Wedding Centerpiece</t>
-  </si>
-  <si>
-    <t>15 pcs PAMPAS GRASS Small 23" tall - Reed Bunch Wedding flowers Home Decor Dried Flowers Boho Plant Rustic Gift Bridal Bouquet</t>
-  </si>
-  <si>
-    <t>Pampas Grass Bunch Brown 10 pcs Natural Dried - Preserved Flowers Bouquet Boho Decor Wedding Table Centerpieces Bridal Shower Decorations</t>
-  </si>
-  <si>
-    <t>PAMPAS GRASS Small 23" tall -Reed Bunch Wedding flowers Home Decor Dried Florals Boho Rustic Gift Bridal Bouquet Wedding favors</t>
-  </si>
-  <si>
-    <t>Ivory Pampas Set - Small White Pampas Bunny Tails White Ruscus Ivory Fluffy Pampas Dried Flowers Wedding Decor Home Decor Easter Gift</t>
-  </si>
-  <si>
-    <t>Set: Brown Pampas Burgundy Bunny Limonium - Dry Flower Bouquet Bunny Tails Fluffy Pampas Wedding Centerpiece Dried Home Decor Boho Bridal</t>
-  </si>
-  <si>
-    <t>XL PAMPAS GRASS 3 stems Extra Fluffy Natural Color 45" Large - Home Office Decor Boho Wedding Decor Dried Flowers Boho</t>
-  </si>
-  <si>
-    <t>Dried Bunny Bouquet “Honey” - Bunny Tails Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Centerpiece Wedding favors</t>
-  </si>
-  <si>
-    <t>Tropical Palm Leaves (3 pcs) Large Dried Organic - Cycas Palms Boho Wedding Home Decor Pampas Grass</t>
-  </si>
-  <si>
-    <t>Faux Pampas Grass "Vanilla" (3 stems) Medium 38” tall Artificial - For Love Of Pampas</t>
-  </si>
-  <si>
-    <t>Faux Pampas Grass "Vanilla" (3 stems) Large 43" tall Artificial - For Love Of Pampas</t>
-  </si>
-  <si>
-    <t>BUNNY TAILS 60 pcs Handpicked Bunch - Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Easter decor Wedding favors</t>
-  </si>
-  <si>
-    <t>BUNNY TAILS Black Handpicked Bunch - Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Wedding favors</t>
-  </si>
-  <si>
-    <t>BUNNY TAILS Handpicked Bunch - Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Fall Wedding favors Invitations</t>
-  </si>
-  <si>
-    <t>Taper Candles Set of 4 Milk White Unscented - Natural Wax Candles Home Decor Tablescaping Wedding Table Centerpiece</t>
-  </si>
-  <si>
-    <t>Palm Cloud Bouquet Dried - Dried Palm Leaf Baby’s Breath Wedding Centerpiece Natural Home Decor Boho Decor Decor Bridal Bouquet Bridesmaids</t>
-  </si>
-  <si>
-    <t>Preserved Limonium Bunch Natural - Preserved Florals Bouquet Pampas grass Dried Flowers Boho Wedding Rustic Home Decor</t>
-  </si>
-  <si>
-    <t>Limonium Bunch Preserved Natural - Dried Florals Bouquet Pampas grass Dried Flowers Boho Wedding Decor Rustic Home Decor</t>
-  </si>
-  <si>
-    <t>BUNNY TAILS (180 pcs) Handpicked - Large Bunch Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Centerpiece</t>
-  </si>
-  <si>
-    <t>BUNNY TAILS (180 pcs) Pink - Large Bunch Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Centerpiece Wedding favors</t>
-  </si>
-  <si>
-    <t>Dried Bar Pampas Bunny Tails Palm Leaves - Dried Florals Wedding Decor Centerpiece Natural Home Decor Boho DIY  Bridal Bouquet</t>
-  </si>
-  <si>
-    <t>Natural Limonium Bunch - Preserved Florals Bouquet Pampas grass Dried Flowers Boho Wedding Decor Rustic Home Decor</t>
-  </si>
-  <si>
-    <t>Red Limonium Bunch Preserved Natural -Dried Florals Pampas grass Dried Flower Bouquet Boho Wedding Decor Rustic Home Decor Tablescape</t>
-  </si>
-  <si>
-    <t>Bunny Tails "Natural" Handpicked Bunch - Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Bohemian Plant Wedding favors</t>
-  </si>
-  <si>
-    <t>Boho Bouquet Dried - Bunny Tails Wedding Centerpiece Natural Home Decor Boho Decor Decor Bridal Bouquet Bridesmaids Dried palm leaf</t>
-  </si>
-  <si>
-    <t>Faux Pampas Grass "Chocolate" (3 stems) Medium 38” tall Artificial - For Love Of Pampas</t>
-  </si>
-  <si>
-    <t>Pampas Grass "Faux" Caramel (3 stems) Medium 38” tall Real Touch - Boho Home Decor Wedding Decor Floral Arrangements Centerpiece</t>
-  </si>
-  <si>
-    <t>Pampas Grass "Faux" Caramel (5 stems) Small 20” tall Real Touch - Boho Home Decor Wedding Decor Floral Arrangements Centerpiece</t>
-  </si>
-  <si>
-    <t>Faux Pampas Grass "Peach" (3 stems) Medium 38” tall Artificial - For Love Of Pampas</t>
-  </si>
-  <si>
-    <t>Set of 3 BUNNY TAILS Bunches Handpicked - Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Wedding favor</t>
-  </si>
-  <si>
-    <t>600 pcs Wholesale Bunny Tails - Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Wedding favors DIY Bouquet Centerpiece</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>Discounted 3 pcs Large Palm Leaves Dried Trimmed - Tropical Palm Fans Spear Pampas Grass Boho Wedding Bridal Bouquet Home Decor</t>
-  </si>
-  <si>
-    <t>Bundle Ivory Pampas Bunny Set - Wedding Centerpiece Dry Flower Bouquet Home Decor Boho Decor Bridal Bouquet Bridesmaids Bunch Bunny Tails</t>
-  </si>
-  <si>
-    <t>Ivory Pampas Bouquet 25” Bunny Tails - Wedding Centerpiece Natural Grass Home Decor Boho Decor Decor Bridal Bouquet Bridesmaids</t>
-  </si>
-  <si>
-    <t>BUNNY TAILS (180 pcs) - Large Bunch Natural Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Centerpiece Wedding favors</t>
-  </si>
-  <si>
-    <t>Faux Pampas Grass "Peach" (3 stems) Large 43” tall Artificial - For Love Of Pampas</t>
-  </si>
-  <si>
-    <t>Red Limonium Bunch- Dried Natural Florals Bouquet Pampas grass Dried Flowers Boho Wedding Decor Rustic Home Decor Tablescaping</t>
-  </si>
-  <si>
-    <t>Bunny Tails "White" Handpicked Bunch - Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Bohemian Plant Backyard Patio Design</t>
-  </si>
-  <si>
-    <t>Mini Bunny Tails Bunch 60 pcs - Dried Lagurus Pampas Grass Boho Wedding Invitations Bridal Bouquet Home Decor Dried florals Wedding favors</t>
-  </si>
-  <si>
-    <t>10 stems Artificial Peony Bunch Milk White  28” tall Clearance - Luxe Quality Faux Flowers Home Decor Wedding Decor Bouquet Pampas Grass</t>
-  </si>
-  <si>
-    <t>Billy Balls Yellow (10 pcs) Dried - Medium size Dried Bouquet Craspedia Billy Buttons Pampas grass Yellow Dried Flowers wedding home decor</t>
-  </si>
-  <si>
-    <t>Bundle: 3xSmall, 3xLarge Palm Leaves Dried Trimmed Organic - Tropical Palm Fans Leaves Pampas Grass Boho Wedding Bridal Bouquet Home Decor</t>
-  </si>
-  <si>
-    <t>Dried Palm Leaves 2 pcs Natural Organic - Tropical Palm Fans Spear Pampas Grass Boho Wedding Bridal Bouquet Home Decor Palm Flutters</t>
-  </si>
-  <si>
-    <t>Golden Wheat Dried Natural Bunch - Dried Bouquet Pampas grass Dried Flowers Boho Wedding Decor Rustic Home Decor</t>
-  </si>
-  <si>
-    <t>Red Ruscus Branches Dried - DIY Flower Arrangement Boho Wedding Decor Rustic Home Decor Bridal Bouquet</t>
-  </si>
-  <si>
-    <t>Medium Pampas Grass Ivory Bunch 30” (7 stems) Natural Dried - For Love Of Pampas</t>
-  </si>
-  <si>
-    <t>PAMPAS GRASS Small Natural Brown 23" tall - Reed Bunch Wedding flowers Home Decor Dried Flowers Boho Plant Rustic Gift Bridal Bouquet</t>
-  </si>
-  <si>
-    <t>Pampas Grass Small 23" tall - Dried Flower Bouquet Wedding Bunch Home Decor Boho Party Rustic Gift Bridal Bouquet Wedding favors</t>
-  </si>
-  <si>
-    <t>BUNNY TAILS Handpicked Bunch - White Dried Lagurus Pampas Grass Boho Wedding Decor Bridal Bouquet Boho Wedding favors</t>
-  </si>
-  <si>
-    <t>Rabbit Tails 40 pcs Natural Green - Bunny Tails Natural Dried Boho Wedding Decor Pampas Grass Bridal Bouquet Wedding Favors</t>
-  </si>
-  <si>
-    <t>Bunny Tails Red Bean Handpicked Bunch - Natural Dried Boho Wedding Decor Pampas Grass Bridal Bouquet House Plant Wedding Favors</t>
-  </si>
-  <si>
-    <t>Nigella Orientalis Off-white Dried - DIY Flower Arrangement Boho Wedding Decor Rustic Home Decor Bridal Bouquet</t>
-  </si>
-  <si>
-    <t>Dried Oats Natural Bunch - Dried Bouquet Pampas grass Dried Flowers Boho Wedding Decor Rustic Home Decor</t>
-  </si>
-  <si>
-    <t>Ivory Ruscus Branches Dried - DIY Flower Arrangement Pampas grass Dried Flowers Boho Wedding Decor Rustic Home Decor Bridal Bouquet</t>
-  </si>
-  <si>
-    <t>Rabbit Tails 40 pcs - Natural Dried Boho Wedding Decor Pampas Grass White Bridal Bouquet Bohemian Plant Backyard Patio Design</t>
-  </si>
-  <si>
-    <t>Palm Leaves (3 pcs) Small Dried Trimmed Organic - Tropical Palm Fans Spear Pampas Grass Boho Wedding Bridal Bouquet Home Decor</t>
-  </si>
-  <si>
-    <t>PAMPAS GRASS White Small 23" tall Wedding flower bunch home decor Reed Housewarming gift Dried Flowers bohemian plant rustic Easter</t>
   </si>
 </sst>
 </file>
@@ -475,10 +475,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -496,14 +496,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,29 +593,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,22 +601,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,30 +616,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,30 +632,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,7 +661,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,169 +835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,10 +866,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -878,8 +885,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,20 +906,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,6 +936,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -946,166 +961,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1460,16 +1460,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.1484375" customWidth="1"/>
     <col min="3" max="3" width="10.5625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="13.5625" customWidth="1"/>
@@ -1498,119 +1498,119 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>727421803</v>
+        <v>1371969510</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>24.9</v>
+        <v>85.9</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>19.92</v>
+        <v>68.72</v>
       </c>
       <c r="F2">
-        <v>6486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>682402489</v>
+        <v>1362552802</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>23.9</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>19.12</v>
+        <v>25.6</v>
       </c>
       <c r="F3">
-        <v>1862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>789192874</v>
+        <v>1361698964</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>56.9</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4">
-        <v>45.52</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>794458390</v>
+        <v>1356034432</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>105</v>
+        <v>33.9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>73.5</v>
+        <v>27.12</v>
       </c>
       <c r="F5">
-        <v>575</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>1371969510</v>
+        <v>1349971828</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>85.9</v>
+        <v>30.9</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6">
-        <v>68.72</v>
+        <v>24.72</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>1362552802</v>
+        <v>1359316781</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>22.9</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7">
-        <v>25.6</v>
+        <v>18.32</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1618,159 +1618,159 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>1361698964</v>
+        <v>1359307137</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>23.9</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>19.12</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>1356034432</v>
+        <v>1345307708</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>33.9</v>
+        <v>31.9</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9">
-        <v>27.12</v>
+        <v>25.52</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>1349971828</v>
+        <v>1334466216</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>30.9</v>
+        <v>54.9</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10">
-        <v>24.72</v>
+        <v>43.92</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>1359316781</v>
+        <v>1288226238</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>22.9</v>
+        <v>31.9</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11">
-        <v>18.32</v>
+        <v>25.52</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>1359307137</v>
+        <v>1288214742</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>23.9</v>
+        <v>31.9</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12">
-        <v>19.12</v>
+        <v>25.52</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>1345307708</v>
+        <v>1302173385</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>31.9</v>
+        <v>56.9</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13">
-        <v>25.52</v>
+        <v>45.52</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>1334466216</v>
+        <v>1265019201</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>54.9</v>
+        <v>24.9</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14">
-        <v>43.92</v>
+        <v>19.92</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>1288226238</v>
+        <v>1283845173</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>31.9</v>
+        <v>24.9</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15">
-        <v>25.52</v>
+        <v>19.92</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -1778,359 +1778,359 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>1288214742</v>
+        <v>1269283456</v>
       </c>
       <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>30.9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>24.72</v>
+      </c>
+      <c r="F16">
         <v>22</v>
-      </c>
-      <c r="C16">
-        <v>31.9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>25.52</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>1302173385</v>
+        <v>1269199834</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>56.9</v>
+        <v>30.9</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17">
-        <v>45.52</v>
+        <v>24.72</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>1265019201</v>
+        <v>1269173154</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>24.9</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18">
-        <v>19.92</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>1283845173</v>
+        <v>1278326231</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
         <v>25</v>
       </c>
-      <c r="C19">
-        <v>24.9</v>
-      </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19">
-        <v>19.92</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>1269283456</v>
+        <v>1280804017</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>30.9</v>
+        <v>48.9</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20">
-        <v>24.72</v>
+        <v>39.12</v>
       </c>
       <c r="F20">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>1269199834</v>
+        <v>1262159600</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>30.9</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21">
-        <v>24.72</v>
+        <v>28</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>1269173154</v>
+        <v>1258753212</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>23.9</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>19.12</v>
       </c>
       <c r="F22">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>1278326231</v>
+        <v>1272745737</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>1280804017</v>
+        <v>1258731412</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>48.9</v>
+        <v>93.9</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24">
-        <v>39.12</v>
+        <v>75.12</v>
       </c>
       <c r="F24">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>1262159600</v>
+        <v>1258717090</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>93.9</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25">
-        <v>28</v>
+        <v>75.12</v>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>1258753212</v>
+        <v>1257568052</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>23.9</v>
+        <v>19.9</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26">
-        <v>19.12</v>
+        <v>15.92</v>
       </c>
       <c r="F26">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>1272745737</v>
+        <v>1271107017</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>31.9</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27">
-        <v>24</v>
+        <v>25.52</v>
       </c>
       <c r="F27">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>1258731412</v>
+        <v>1270347747</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>93.9</v>
+        <v>48.9</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28">
-        <v>75.12</v>
+        <v>39.12</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>1258717090</v>
+        <v>1268754877</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>93.9</v>
+        <v>22.9</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29">
-        <v>75.12</v>
+        <v>18.32</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>1257568052</v>
+        <v>1250244474</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>19.9</v>
+        <v>36.5</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30">
-        <v>15.92</v>
+        <v>29.2</v>
       </c>
       <c r="F30">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>1271107017</v>
+        <v>1264261631</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31">
-        <v>25.52</v>
+        <v>34.32</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>1270347747</v>
+        <v>1262616881</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>48.9</v>
+        <v>22.5</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32">
-        <v>39.12</v>
+        <v>18</v>
       </c>
       <c r="F32">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>1268754877</v>
+        <v>1262616123</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33">
-        <v>18.32</v>
+        <v>18</v>
       </c>
       <c r="F33">
         <v>12</v>
@@ -2138,59 +2138,59 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>1250244474</v>
+        <v>1248610526</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34">
-        <v>36.5</v>
+        <v>22.5</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34">
-        <v>29.2</v>
+        <v>18</v>
       </c>
       <c r="F34">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>1264261631</v>
+        <v>1248597168</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>42.9</v>
+        <v>19.9</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35">
-        <v>34.32</v>
+        <v>15.92</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>1262616881</v>
+        <v>1262600667</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>22.5</v>
+        <v>19.9</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36">
-        <v>18</v>
+        <v>15.92</v>
       </c>
       <c r="F36">
         <v>11</v>
@@ -2198,90 +2198,90 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>1262616123</v>
+        <v>1262001009</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37">
-        <v>22.5</v>
+        <v>23.9</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37">
-        <v>18</v>
+        <v>19.12</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>1248610526</v>
+        <v>1261997899</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38">
-        <v>22.5</v>
+        <v>23.9</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38">
-        <v>18</v>
+        <v>19.12</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>1248597168</v>
+        <v>1247991708</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C39">
-        <v>19.9</v>
+        <v>23.9</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39">
-        <v>15.92</v>
+        <v>19.12</v>
       </c>
       <c r="F39">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>1262600667</v>
+        <v>1247990730</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C40">
-        <v>19.9</v>
+        <v>23.9</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40">
-        <v>15.92</v>
+        <v>19.12</v>
       </c>
       <c r="F40">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>1262001009</v>
+        <v>1261995199</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>23.9</v>
@@ -2293,35 +2293,35 @@
         <v>19.12</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>727421803</v>
+        <v>1247989050</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C42">
-        <v>24.9</v>
+        <v>23.9</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42">
-        <v>19.92</v>
+        <v>19.12</v>
       </c>
       <c r="F42">
-        <v>6486</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>682402489</v>
+        <v>1247986982</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C43">
         <v>23.9</v>
@@ -2333,144 +2333,144 @@
         <v>19.12</v>
       </c>
       <c r="F43">
-        <v>1862</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>789192874</v>
+        <v>1247965518</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C44">
-        <v>56.9</v>
+        <v>23.9</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
       <c r="E44">
-        <v>45.52</v>
+        <v>19.12</v>
       </c>
       <c r="F44">
-        <v>241</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>794458390</v>
+        <v>1247561108</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C45">
-        <v>105</v>
+        <v>42.9</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>73.5</v>
+        <v>34.32</v>
       </c>
       <c r="F45">
-        <v>575</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>1261997899</v>
+        <v>1247047358</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C46">
-        <v>23.9</v>
+        <v>54.9</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
       <c r="E46">
-        <v>19.12</v>
+        <v>43.92</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>1247991708</v>
+        <v>1259852819</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47">
-        <v>23.9</v>
+        <v>31.9</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47">
-        <v>19.12</v>
+        <v>25.52</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>1247990730</v>
+        <v>1243580567</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48">
-        <v>23.9</v>
+        <v>108.9</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>19.12</v>
+        <v>87.12</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>1261995199</v>
+        <v>1243575577</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
       </c>
       <c r="C49">
-        <v>23.9</v>
+        <v>54.9</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
       <c r="E49">
-        <v>19.12</v>
+        <v>43.92</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>1247989050</v>
+        <v>1228857070</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C50">
-        <v>23.9</v>
+        <v>148.9</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
       </c>
       <c r="E50">
-        <v>19.12</v>
+        <v>119.12</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>1247986982</v>
+        <v>1242499139</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C51">
         <v>23.9</v>
@@ -2493,15 +2493,15 @@
         <v>19.12</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>1247965518</v>
+        <v>1242495733</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C52">
         <v>23.9</v>
@@ -2513,15 +2513,15 @@
         <v>19.12</v>
       </c>
       <c r="F52">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>1247561108</v>
+        <v>1228507906</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C53">
         <v>42.9</v>
@@ -2533,735 +2533,735 @@
         <v>34.32</v>
       </c>
       <c r="F53">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>1247047358</v>
+        <v>1222170760</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C54">
-        <v>54.9</v>
+        <v>98.9</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
       </c>
       <c r="E54">
-        <v>43.92</v>
+        <v>79.12</v>
       </c>
       <c r="F54">
-        <v>306</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>1259852819</v>
+        <v>1221576530</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C55">
-        <v>31.9</v>
+        <v>27.9</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
       <c r="E55">
-        <v>25.52</v>
+        <v>22.32</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>1243580567</v>
+        <v>1221575270</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C56">
-        <v>108.9</v>
+        <v>27.9</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56">
-        <v>87.12</v>
+        <v>22.32</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>1243575577</v>
+        <v>1235507155</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C57">
-        <v>54.9</v>
+        <v>27.9</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
       <c r="E57">
-        <v>43.92</v>
+        <v>22.32</v>
       </c>
       <c r="F57">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>1228857070</v>
+        <v>1221564442</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C58">
-        <v>148.9</v>
+        <v>27.9</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
       </c>
       <c r="E58">
-        <v>119.12</v>
+        <v>22.32</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>1242499139</v>
+        <v>1235491333</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C59">
-        <v>23.9</v>
+        <v>27.9</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59">
-        <v>19.12</v>
+        <v>22.32</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>1242495733</v>
+        <v>1235487007</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C60">
-        <v>23.9</v>
+        <v>27.9</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
       <c r="E60">
-        <v>19.12</v>
+        <v>22.32</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>1228507906</v>
+        <v>1220261288</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C61">
-        <v>42.9</v>
+        <v>148.9</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
       </c>
       <c r="E61">
-        <v>34.32</v>
+        <v>119.12</v>
       </c>
       <c r="F61">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>1222170760</v>
+        <v>1231427347</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C62">
-        <v>98.9</v>
+        <v>148.9</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
       <c r="E62">
-        <v>79.12</v>
+        <v>119.12</v>
       </c>
       <c r="F62">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>1221576530</v>
+        <v>1218085265</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C63">
-        <v>27.9</v>
+        <v>61.9</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
       </c>
       <c r="E63">
-        <v>22.32</v>
+        <v>49.52</v>
       </c>
       <c r="F63">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>1221575270</v>
+        <v>1200161000</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C64">
-        <v>27.9</v>
+        <v>24.9</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
       </c>
       <c r="E64">
-        <v>22.32</v>
+        <v>19.92</v>
       </c>
       <c r="F64">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>1235507155</v>
+        <v>1211280977</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C65">
-        <v>27.9</v>
+        <v>85.9</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
       <c r="E65">
-        <v>22.32</v>
+        <v>68.72</v>
       </c>
       <c r="F65">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>1221564442</v>
+        <v>1197319290</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C66">
-        <v>27.9</v>
+        <v>148.9</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
       </c>
       <c r="E66">
-        <v>22.32</v>
+        <v>119.12</v>
       </c>
       <c r="F66">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>1235491333</v>
+        <v>1211227875</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C67">
-        <v>27.9</v>
+        <v>86.5</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
       </c>
       <c r="E67">
-        <v>22.32</v>
+        <v>69.2</v>
       </c>
       <c r="F67">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>1235487007</v>
+        <v>1194918848</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C68">
-        <v>27.9</v>
+        <v>42.9</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
       </c>
       <c r="E68">
-        <v>22.32</v>
+        <v>34.32</v>
       </c>
       <c r="F68">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>1220261288</v>
+        <v>1194908408</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C69">
-        <v>148.9</v>
+        <v>42.9</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
       </c>
       <c r="E69">
-        <v>119.12</v>
+        <v>34.32</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>1231427347</v>
+        <v>1193514636</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C70">
-        <v>148.9</v>
+        <v>58.9</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
       </c>
       <c r="E70">
-        <v>119.12</v>
+        <v>47.12</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>1218085265</v>
+        <v>1188584206</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C71">
-        <v>61.9</v>
+        <v>123</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E71">
-        <v>49.52</v>
+        <v>86.1</v>
       </c>
       <c r="F71">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>1200161000</v>
+        <v>1180294838</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C72">
-        <v>24.9</v>
+        <v>27.9</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
       </c>
       <c r="E72">
-        <v>19.92</v>
+        <v>22.32</v>
       </c>
       <c r="F72">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>1211280977</v>
+        <v>1194249653</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C73">
-        <v>85.9</v>
+        <v>27.9</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73">
-        <v>68.72</v>
+        <v>22.32</v>
       </c>
       <c r="F73">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>1197319290</v>
+        <v>1180290224</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C74">
-        <v>148.9</v>
+        <v>27.9</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
       </c>
       <c r="E74">
-        <v>119.12</v>
+        <v>22.32</v>
       </c>
       <c r="F74">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>1211227875</v>
+        <v>1180234856</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C75">
-        <v>86.5</v>
+        <v>27.9</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
       <c r="E75">
-        <v>69.2</v>
+        <v>22.32</v>
       </c>
       <c r="F75">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>1194918848</v>
+        <v>1161559172</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C76">
-        <v>42.9</v>
+        <v>36.5</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
       <c r="E76">
-        <v>34.32</v>
+        <v>29.2</v>
       </c>
       <c r="F76">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>1194908408</v>
+        <v>1169977765</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C77">
-        <v>42.9</v>
+        <v>61.9</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
       </c>
       <c r="E77">
-        <v>34.32</v>
+        <v>49.52</v>
       </c>
       <c r="F77">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>1193514636</v>
+        <v>1169967271</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C78">
-        <v>58.9</v>
+        <v>85.9</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
       </c>
       <c r="E78">
-        <v>47.12</v>
+        <v>68.72</v>
       </c>
       <c r="F78">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>1188584206</v>
+        <v>1156011228</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C79">
-        <v>123</v>
+        <v>68.9</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E79">
-        <v>86.1</v>
+        <v>55.12</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>1180294838</v>
+        <v>1169960799</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C80">
-        <v>27.9</v>
+        <v>148.9</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
       </c>
       <c r="E80">
-        <v>22.32</v>
+        <v>119.12</v>
       </c>
       <c r="F80">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>1194249653</v>
+        <v>1142092494</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C81">
-        <v>27.9</v>
+        <v>106.5</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
       <c r="E81">
-        <v>22.32</v>
+        <v>85.2</v>
       </c>
       <c r="F81">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>727421803</v>
+        <v>1132002336</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C82">
-        <v>24.9</v>
+        <v>27.9</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
       <c r="E82">
-        <v>19.92</v>
+        <v>22.32</v>
       </c>
       <c r="F82">
-        <v>6486</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>682402489</v>
+        <v>1112838638</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="C83">
-        <v>23.9</v>
+        <v>19.9</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
       </c>
       <c r="E83">
-        <v>19.12</v>
+        <v>15.92</v>
       </c>
       <c r="F83">
-        <v>1862</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>789192874</v>
+        <v>1122295208</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C84">
-        <v>56.9</v>
+        <v>135.9</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
       <c r="E84">
-        <v>45.52</v>
+        <v>108.72</v>
       </c>
       <c r="F84">
-        <v>241</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>794458390</v>
+        <v>1122308014</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="C85">
-        <v>105</v>
+        <v>56.5</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E85">
-        <v>73.5</v>
+        <v>45.2</v>
       </c>
       <c r="F85">
-        <v>575</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>1180290224</v>
+        <v>1136258385</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C86">
-        <v>27.9</v>
+        <v>85.9</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
       </c>
       <c r="E86">
-        <v>22.32</v>
+        <v>68.72</v>
       </c>
       <c r="F86">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>1180234856</v>
+        <v>1136251289</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C87">
-        <v>27.9</v>
+        <v>73.9</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
       </c>
       <c r="E87">
-        <v>22.32</v>
+        <v>59.12</v>
       </c>
       <c r="F87">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>1161559172</v>
+        <v>1136245513</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C88">
-        <v>36.5</v>
+        <v>122.5</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
       </c>
       <c r="E88">
-        <v>29.2</v>
+        <v>98</v>
       </c>
       <c r="F88">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>1169977765</v>
+        <v>1122288568</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C89">
-        <v>61.9</v>
+        <v>148.9</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
       </c>
       <c r="E89">
-        <v>49.52</v>
+        <v>119.12</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>1169967271</v>
+        <v>1122277718</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C90">
         <v>85.9</v>
@@ -3273,144 +3273,144 @@
         <v>68.72</v>
       </c>
       <c r="F90">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>1156011228</v>
+        <v>1134820913</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C91">
-        <v>68.9</v>
+        <v>23.9</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
       </c>
       <c r="E91">
-        <v>55.12</v>
+        <v>19.12</v>
       </c>
       <c r="F91">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>1169960799</v>
+        <v>1119080321</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C92">
-        <v>148.9</v>
+        <v>35.9</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
       </c>
       <c r="E92">
-        <v>119.12</v>
+        <v>28.72</v>
       </c>
       <c r="F92">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>1142092494</v>
+        <v>1118765755</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C93">
-        <v>106.5</v>
+        <v>16.9</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
       </c>
       <c r="E93">
-        <v>85.2</v>
+        <v>13.52</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>1132002336</v>
+        <v>1110414945</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C94">
-        <v>27.9</v>
+        <v>61.9</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
       </c>
       <c r="E94">
-        <v>22.32</v>
+        <v>49.52</v>
       </c>
       <c r="F94">
-        <v>266</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>1112838638</v>
+        <v>1116951007</v>
       </c>
       <c r="B95" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C95">
-        <v>19.9</v>
+        <v>61.9</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
       </c>
       <c r="E95">
-        <v>15.92</v>
+        <v>49.52</v>
       </c>
       <c r="F95">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>1122295208</v>
+        <v>1102116912</v>
       </c>
       <c r="B96" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C96">
-        <v>135.9</v>
+        <v>78.9</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E96">
-        <v>108.72</v>
+        <v>55.23</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>1122308014</v>
+        <v>1091670468</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C97">
-        <v>56.5</v>
+        <v>81</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
       </c>
       <c r="E97">
-        <v>45.2</v>
+        <v>64.8</v>
       </c>
       <c r="F97">
         <v>12</v>
@@ -3418,310 +3418,310 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>1136258385</v>
+        <v>1105533455</v>
       </c>
       <c r="B98" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C98">
-        <v>85.9</v>
+        <v>36.9</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
       </c>
       <c r="E98">
-        <v>68.72</v>
+        <v>29.52</v>
       </c>
       <c r="F98">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>1136251289</v>
+        <v>1103789659</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C99">
-        <v>73.9</v>
+        <v>48.9</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E99">
-        <v>59.12</v>
+        <v>34.23</v>
       </c>
       <c r="F99">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>1136245513</v>
+        <v>1103783643</v>
       </c>
       <c r="B100" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C100">
-        <v>122.5</v>
+        <v>61.9</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E100">
-        <v>98</v>
+        <v>43.33</v>
       </c>
       <c r="F100">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>1122288568</v>
+        <v>1087701566</v>
       </c>
       <c r="B101" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C101">
-        <v>148.9</v>
+        <v>24.9</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
       </c>
       <c r="E101">
-        <v>119.12</v>
+        <v>19.92</v>
       </c>
       <c r="F101">
-        <v>6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>1122277718</v>
+        <v>1101633227</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C102">
-        <v>85.9</v>
+        <v>24.9</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
       <c r="E102">
-        <v>68.72</v>
+        <v>19.92</v>
       </c>
       <c r="F102">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>1134820913</v>
+        <v>1101630333</v>
       </c>
       <c r="B103" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C103">
-        <v>23.9</v>
+        <v>24.9</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
       </c>
       <c r="E103">
-        <v>19.12</v>
+        <v>19.92</v>
       </c>
       <c r="F103">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>1119080321</v>
+        <v>1083422030</v>
       </c>
       <c r="B104" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C104">
-        <v>35.9</v>
+        <v>17.5</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
       </c>
       <c r="E104">
-        <v>28.72</v>
+        <v>14</v>
       </c>
       <c r="F104">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>1118765755</v>
+        <v>1081779298</v>
       </c>
       <c r="B105" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C105">
-        <v>16.9</v>
+        <v>42.9</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
       </c>
       <c r="E105">
-        <v>13.52</v>
+        <v>34.32</v>
       </c>
       <c r="F105">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>1110414945</v>
+        <v>1084754375</v>
       </c>
       <c r="B106" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C106">
-        <v>61.9</v>
+        <v>19.9</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
       </c>
       <c r="E106">
-        <v>49.52</v>
+        <v>15.92</v>
       </c>
       <c r="F106">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>1116951007</v>
+        <v>1084561047</v>
       </c>
       <c r="B107" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C107">
-        <v>61.9</v>
+        <v>19.9</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
       </c>
       <c r="E107">
-        <v>49.52</v>
+        <v>15.92</v>
       </c>
       <c r="F107">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>1102116912</v>
+        <v>1060476014</v>
       </c>
       <c r="B108" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C108">
-        <v>78.9</v>
+        <v>69.9</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E108">
-        <v>55.23</v>
+        <v>55.92</v>
       </c>
       <c r="F108">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>1091670468</v>
+        <v>1074422037</v>
       </c>
       <c r="B109" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C109">
-        <v>81</v>
+        <v>69.9</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
       </c>
       <c r="E109">
-        <v>64.8</v>
+        <v>55.92</v>
       </c>
       <c r="F109">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>1105533455</v>
+        <v>1066901139</v>
       </c>
       <c r="B110" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C110">
-        <v>36.9</v>
+        <v>180.9</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
       </c>
       <c r="E110">
-        <v>29.52</v>
+        <v>144.72</v>
       </c>
       <c r="F110">
-        <v>107</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>1103789659</v>
+        <v>1048661264</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C111">
-        <v>48.9</v>
+        <v>19.9</v>
       </c>
       <c r="D111" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E111">
-        <v>34.23</v>
+        <v>15.92</v>
       </c>
       <c r="F111">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>1103783643</v>
+        <v>1048652712</v>
       </c>
       <c r="B112" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C112">
-        <v>61.9</v>
+        <v>19.9</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E112">
-        <v>43.33</v>
+        <v>15.92</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>1087701566</v>
+        <v>1047375920</v>
       </c>
       <c r="B113" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C113">
         <v>24.9</v>
@@ -3733,275 +3733,275 @@
         <v>19.92</v>
       </c>
       <c r="F113">
-        <v>116</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>1101633227</v>
+        <v>1046417992</v>
       </c>
       <c r="B114" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C114">
-        <v>24.9</v>
+        <v>72.9</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114">
-        <v>19.92</v>
+        <v>58.32</v>
       </c>
       <c r="F114">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>1101630333</v>
+        <v>1041660660</v>
       </c>
       <c r="B115" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C115">
-        <v>24.9</v>
+        <v>48.9</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E115">
-        <v>19.92</v>
+        <v>34.23</v>
       </c>
       <c r="F115">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>1083422030</v>
+        <v>1041659126</v>
       </c>
       <c r="B116" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C116">
-        <v>17.5</v>
+        <v>48.9</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E116">
-        <v>14</v>
+        <v>34.23</v>
       </c>
       <c r="F116">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>1081779298</v>
+        <v>1055620375</v>
       </c>
       <c r="B117" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C117">
-        <v>42.9</v>
+        <v>55.9</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E117">
-        <v>34.32</v>
+        <v>39.13</v>
       </c>
       <c r="F117">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>1084754375</v>
+        <v>1041657396</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C118">
-        <v>19.9</v>
+        <v>48.9</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E118">
-        <v>15.92</v>
+        <v>34.23</v>
       </c>
       <c r="F118">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>1084561047</v>
+        <v>1055614921</v>
       </c>
       <c r="B119" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C119">
-        <v>19.9</v>
+        <v>61.9</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E119">
-        <v>15.92</v>
+        <v>43.33</v>
       </c>
       <c r="F119">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>1060476014</v>
+        <v>1053512447</v>
       </c>
       <c r="B120" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C120">
-        <v>69.9</v>
+        <v>24.9</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
       </c>
       <c r="E120">
-        <v>55.92</v>
+        <v>19.92</v>
       </c>
       <c r="F120">
-        <v>8</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>1074422037</v>
+        <v>1039529254</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C121">
-        <v>69.9</v>
+        <v>22</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="E121">
-        <v>55.92</v>
+        <v>11</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>727421803</v>
+        <v>1026632573</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="C122">
-        <v>24.9</v>
+        <v>42.9</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
       </c>
       <c r="E122">
-        <v>19.92</v>
+        <v>34.32</v>
       </c>
       <c r="F122">
-        <v>6486</v>
+        <v>280</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>682402489</v>
+        <v>1008763658</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="C123">
-        <v>23.9</v>
+        <v>61.9</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
       </c>
       <c r="E123">
-        <v>19.12</v>
+        <v>49.52</v>
       </c>
       <c r="F123">
-        <v>1862</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>789192874</v>
+        <v>995194594</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C124">
-        <v>56.9</v>
+        <v>105.9</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
       </c>
       <c r="E124">
-        <v>45.52</v>
+        <v>84.72</v>
       </c>
       <c r="F124">
-        <v>241</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>794458390</v>
+        <v>996037461</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="C125">
-        <v>105</v>
+        <v>69.9</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E125">
-        <v>73.5</v>
+        <v>55.92</v>
       </c>
       <c r="F125">
-        <v>575</v>
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>1066901139</v>
+        <v>963033203</v>
       </c>
       <c r="B126" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C126">
-        <v>180.9</v>
+        <v>61.9</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E126">
-        <v>144.72</v>
+        <v>43.33</v>
       </c>
       <c r="F126">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>1048661264</v>
+        <v>945844228</v>
       </c>
       <c r="B127" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C127">
         <v>19.9</v>
@@ -4013,35 +4013,35 @@
         <v>15.92</v>
       </c>
       <c r="F127">
-        <v>64</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>1048652712</v>
+        <v>943190352</v>
       </c>
       <c r="B128" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C128">
-        <v>19.9</v>
+        <v>24.9</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
       </c>
       <c r="E128">
-        <v>15.92</v>
+        <v>19.92</v>
       </c>
       <c r="F128">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>1047375920</v>
+        <v>896622542</v>
       </c>
       <c r="B129" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C129">
         <v>24.9</v>
@@ -4053,886 +4053,486 @@
         <v>19.92</v>
       </c>
       <c r="F129">
-        <v>22</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>1046417992</v>
+        <v>905189691</v>
       </c>
       <c r="B130" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C130">
-        <v>72.9</v>
+        <v>89.9</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="E130">
-        <v>58.32</v>
+        <v>44.95</v>
       </c>
       <c r="F130">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>1041660660</v>
+        <v>891260164</v>
       </c>
       <c r="B131" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C131">
-        <v>48.9</v>
+        <v>19.9</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E131">
-        <v>34.23</v>
+        <v>15.92</v>
       </c>
       <c r="F131">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>1041659126</v>
+        <v>891214058</v>
       </c>
       <c r="B132" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C132">
-        <v>48.9</v>
+        <v>86.5</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <v>34.23</v>
+        <v>69.2</v>
       </c>
       <c r="F132">
-        <v>24</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>1055620375</v>
+        <v>891191664</v>
       </c>
       <c r="B133" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C133">
-        <v>55.9</v>
+        <v>23.9</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E133">
-        <v>39.13</v>
+        <v>19.12</v>
       </c>
       <c r="F133">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>1041657396</v>
+        <v>904985813</v>
       </c>
       <c r="B134" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C134">
-        <v>48.9</v>
+        <v>24.9</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E134">
-        <v>34.23</v>
+        <v>19.92</v>
       </c>
       <c r="F134">
-        <v>7</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>1055614921</v>
+        <v>904983733</v>
       </c>
       <c r="B135" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C135">
-        <v>61.9</v>
+        <v>37.9</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E135">
-        <v>43.33</v>
+        <v>30.32</v>
       </c>
       <c r="F135">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>1053512447</v>
+        <v>890144602</v>
       </c>
       <c r="B136" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C136">
-        <v>24.9</v>
+        <v>74.9</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
       </c>
       <c r="E136">
-        <v>19.92</v>
+        <v>59.92</v>
       </c>
       <c r="F136">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>1039529254</v>
+        <v>901244069</v>
       </c>
       <c r="B137" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C137">
-        <v>22</v>
+        <v>23.9</v>
       </c>
       <c r="D137" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="E137">
-        <v>11</v>
+        <v>19.12</v>
       </c>
       <c r="F137">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>1026632573</v>
+        <v>887301110</v>
       </c>
       <c r="B138" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C138">
-        <v>42.9</v>
+        <v>23.9</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
       </c>
       <c r="E138">
-        <v>34.32</v>
+        <v>19.12</v>
       </c>
       <c r="F138">
-        <v>280</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>1008763658</v>
+        <v>887297268</v>
       </c>
       <c r="B139" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C139">
-        <v>61.9</v>
+        <v>19.9</v>
       </c>
       <c r="D139" t="s">
         <v>7</v>
       </c>
       <c r="E139">
-        <v>49.52</v>
+        <v>15.92</v>
       </c>
       <c r="F139">
-        <v>58</v>
+        <v>697</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>995194594</v>
+        <v>877306960</v>
       </c>
       <c r="B140" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C140">
-        <v>105.9</v>
+        <v>22.5</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
       </c>
       <c r="E140">
-        <v>84.72</v>
+        <v>18</v>
       </c>
       <c r="F140">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>996037461</v>
+        <v>871454781</v>
       </c>
       <c r="B141" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C141">
-        <v>69.9</v>
+        <v>24.9</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
       </c>
       <c r="E141">
-        <v>55.92</v>
+        <v>19.92</v>
       </c>
       <c r="F141">
-        <v>231</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>963033203</v>
+        <v>856990610</v>
       </c>
       <c r="B142" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C142">
-        <v>61.9</v>
+        <v>48.9</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E142">
-        <v>43.33</v>
+        <v>34.23</v>
       </c>
       <c r="F142">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>945844228</v>
+        <v>841224678</v>
       </c>
       <c r="B143" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C143">
-        <v>19.9</v>
+        <v>30</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
       </c>
       <c r="E143">
-        <v>15.92</v>
+        <v>24</v>
       </c>
       <c r="F143">
-        <v>182</v>
+        <v>91</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>943190352</v>
+        <v>841223032</v>
       </c>
       <c r="B144" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C144">
-        <v>24.9</v>
+        <v>19.9</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
       </c>
       <c r="E144">
-        <v>19.92</v>
+        <v>15.92</v>
       </c>
       <c r="F144">
-        <v>132</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>896622542</v>
+        <v>841219124</v>
       </c>
       <c r="B145" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C145">
-        <v>24.9</v>
+        <v>38</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
       </c>
       <c r="E145">
-        <v>19.92</v>
+        <v>30.4</v>
       </c>
       <c r="F145">
-        <v>1150</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>905189691</v>
+        <v>849037167</v>
       </c>
       <c r="B146" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C146">
-        <v>89.9</v>
+        <v>22.5</v>
       </c>
       <c r="D146" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="E146">
-        <v>44.95</v>
+        <v>18</v>
       </c>
       <c r="F146">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>891260164</v>
+        <v>834648668</v>
       </c>
       <c r="B147" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C147">
-        <v>19.9</v>
+        <v>36.9</v>
       </c>
       <c r="D147" t="s">
         <v>7</v>
       </c>
       <c r="E147">
-        <v>15.92</v>
+        <v>29.52</v>
       </c>
       <c r="F147">
-        <v>240</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>891214058</v>
+        <v>794458390</v>
       </c>
       <c r="B148" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C148">
-        <v>86.5</v>
+        <v>105</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E148">
-        <v>69.2</v>
+        <v>73.5</v>
       </c>
       <c r="F148">
-        <v>67</v>
+        <v>575</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>891191664</v>
+        <v>789192874</v>
       </c>
       <c r="B149" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C149">
-        <v>23.9</v>
+        <v>56.9</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
       </c>
       <c r="E149">
-        <v>19.12</v>
+        <v>45.52</v>
       </c>
       <c r="F149">
-        <v>81</v>
+        <v>241</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>904985813</v>
+        <v>718981690</v>
       </c>
       <c r="B150" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C150">
-        <v>24.9</v>
+        <v>23.9</v>
       </c>
       <c r="D150" t="s">
         <v>7</v>
       </c>
       <c r="E150">
-        <v>19.92</v>
+        <v>19.12</v>
       </c>
       <c r="F150">
-        <v>255</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>904983733</v>
+        <v>727421803</v>
       </c>
       <c r="B151" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C151">
-        <v>37.9</v>
+        <v>24.9</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
       </c>
       <c r="E151">
-        <v>30.32</v>
+        <v>19.92</v>
       </c>
       <c r="F151">
-        <v>30</v>
+        <v>6486</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>890144602</v>
+        <v>682402489</v>
       </c>
       <c r="B152" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C152">
-        <v>74.9</v>
+        <v>23.9</v>
       </c>
       <c r="D152" t="s">
         <v>7</v>
       </c>
       <c r="E152">
-        <v>59.92</v>
+        <v>19.12</v>
       </c>
       <c r="F152">
-        <v>156</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>901244069</v>
+        <v>687942549</v>
       </c>
       <c r="B153" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C153">
-        <v>23.9</v>
+        <v>78.9</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E153">
-        <v>19.12</v>
+        <v>55.23</v>
       </c>
       <c r="F153">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>887301110</v>
-      </c>
-      <c r="B154" t="s">
-        <v>141</v>
-      </c>
-      <c r="C154">
-        <v>23.9</v>
-      </c>
-      <c r="D154" t="s">
-        <v>7</v>
-      </c>
-      <c r="E154">
-        <v>19.12</v>
-      </c>
-      <c r="F154">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>887297268</v>
-      </c>
-      <c r="B155" t="s">
-        <v>142</v>
-      </c>
-      <c r="C155">
-        <v>19.9</v>
-      </c>
-      <c r="D155" t="s">
-        <v>7</v>
-      </c>
-      <c r="E155">
-        <v>15.92</v>
-      </c>
-      <c r="F155">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>877306960</v>
-      </c>
-      <c r="B156" t="s">
-        <v>143</v>
-      </c>
-      <c r="C156">
-        <v>22.5</v>
-      </c>
-      <c r="D156" t="s">
-        <v>7</v>
-      </c>
-      <c r="E156">
-        <v>18</v>
-      </c>
-      <c r="F156">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>871454781</v>
-      </c>
-      <c r="B157" t="s">
-        <v>144</v>
-      </c>
-      <c r="C157">
-        <v>24.9</v>
-      </c>
-      <c r="D157" t="s">
-        <v>7</v>
-      </c>
-      <c r="E157">
-        <v>19.92</v>
-      </c>
-      <c r="F157">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>856990610</v>
-      </c>
-      <c r="B158" t="s">
-        <v>102</v>
-      </c>
-      <c r="C158">
-        <v>48.9</v>
-      </c>
-      <c r="D158" t="s">
-        <v>11</v>
-      </c>
-      <c r="E158">
-        <v>34.23</v>
-      </c>
-      <c r="F158">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>841224678</v>
-      </c>
-      <c r="B159" t="s">
-        <v>145</v>
-      </c>
-      <c r="C159">
-        <v>30</v>
-      </c>
-      <c r="D159" t="s">
-        <v>7</v>
-      </c>
-      <c r="E159">
-        <v>24</v>
-      </c>
-      <c r="F159">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>841223032</v>
-      </c>
-      <c r="B160" t="s">
-        <v>146</v>
-      </c>
-      <c r="C160">
-        <v>19.9</v>
-      </c>
-      <c r="D160" t="s">
-        <v>7</v>
-      </c>
-      <c r="E160">
-        <v>15.92</v>
-      </c>
-      <c r="F160">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>841219124</v>
-      </c>
-      <c r="B161" t="s">
-        <v>147</v>
-      </c>
-      <c r="C161">
-        <v>38</v>
-      </c>
-      <c r="D161" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161">
-        <v>30.4</v>
-      </c>
-      <c r="F161">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>727421803</v>
-      </c>
-      <c r="B162" t="s">
-        <v>6</v>
-      </c>
-      <c r="C162">
-        <v>24.9</v>
-      </c>
-      <c r="D162" t="s">
-        <v>7</v>
-      </c>
-      <c r="E162">
-        <v>19.92</v>
-      </c>
-      <c r="F162">
-        <v>6486</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>682402489</v>
-      </c>
-      <c r="B163" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163">
-        <v>23.9</v>
-      </c>
-      <c r="D163" t="s">
-        <v>7</v>
-      </c>
-      <c r="E163">
-        <v>19.12</v>
-      </c>
-      <c r="F163">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>789192874</v>
-      </c>
-      <c r="B164" t="s">
-        <v>9</v>
-      </c>
-      <c r="C164">
-        <v>56.9</v>
-      </c>
-      <c r="D164" t="s">
-        <v>7</v>
-      </c>
-      <c r="E164">
-        <v>45.52</v>
-      </c>
-      <c r="F164">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>794458390</v>
-      </c>
-      <c r="B165" t="s">
-        <v>10</v>
-      </c>
-      <c r="C165">
-        <v>105</v>
-      </c>
-      <c r="D165" t="s">
-        <v>11</v>
-      </c>
-      <c r="E165">
-        <v>73.5</v>
-      </c>
-      <c r="F165">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>849037167</v>
-      </c>
-      <c r="B166" t="s">
-        <v>148</v>
-      </c>
-      <c r="C166">
-        <v>22.5</v>
-      </c>
-      <c r="D166" t="s">
-        <v>7</v>
-      </c>
-      <c r="E166">
-        <v>18</v>
-      </c>
-      <c r="F166">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>834648668</v>
-      </c>
-      <c r="B167" t="s">
-        <v>149</v>
-      </c>
-      <c r="C167">
-        <v>36.9</v>
-      </c>
-      <c r="D167" t="s">
-        <v>7</v>
-      </c>
-      <c r="E167">
-        <v>29.52</v>
-      </c>
-      <c r="F167">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>794458390</v>
-      </c>
-      <c r="B168" t="s">
-        <v>10</v>
-      </c>
-      <c r="C168">
-        <v>105</v>
-      </c>
-      <c r="D168" t="s">
-        <v>11</v>
-      </c>
-      <c r="E168">
-        <v>73.5</v>
-      </c>
-      <c r="F168">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>789192874</v>
-      </c>
-      <c r="B169" t="s">
-        <v>9</v>
-      </c>
-      <c r="C169">
-        <v>56.9</v>
-      </c>
-      <c r="D169" t="s">
-        <v>7</v>
-      </c>
-      <c r="E169">
-        <v>45.52</v>
-      </c>
-      <c r="F169">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>718981690</v>
-      </c>
-      <c r="B170" t="s">
-        <v>150</v>
-      </c>
-      <c r="C170">
-        <v>23.9</v>
-      </c>
-      <c r="D170" t="s">
-        <v>7</v>
-      </c>
-      <c r="E170">
-        <v>19.12</v>
-      </c>
-      <c r="F170">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>727421803</v>
-      </c>
-      <c r="B171" t="s">
-        <v>6</v>
-      </c>
-      <c r="C171">
-        <v>24.9</v>
-      </c>
-      <c r="D171" t="s">
-        <v>7</v>
-      </c>
-      <c r="E171">
-        <v>19.92</v>
-      </c>
-      <c r="F171">
-        <v>6486</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>682402489</v>
-      </c>
-      <c r="B172" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172">
-        <v>23.9</v>
-      </c>
-      <c r="D172" t="s">
-        <v>7</v>
-      </c>
-      <c r="E172">
-        <v>19.12</v>
-      </c>
-      <c r="F172">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>687942549</v>
-      </c>
-      <c r="B173" t="s">
-        <v>99</v>
-      </c>
-      <c r="C173">
-        <v>78.9</v>
-      </c>
-      <c r="D173" t="s">
-        <v>11</v>
-      </c>
-      <c r="E173">
-        <v>55.23</v>
-      </c>
-      <c r="F173">
         <v>279</v>
       </c>
     </row>
